--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.09474865505498</v>
+        <v>2.714293</v>
       </c>
       <c r="H2">
-        <v>1.09474865505498</v>
+        <v>8.142879000000001</v>
       </c>
       <c r="I2">
-        <v>0.01239312404001026</v>
+        <v>0.02893885961486273</v>
       </c>
       <c r="J2">
-        <v>0.01239312404001026</v>
+        <v>0.02893885961486273</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.738865095962</v>
+        <v>41.63852366666666</v>
       </c>
       <c r="N2">
-        <v>12.738865095962</v>
+        <v>124.915571</v>
       </c>
       <c r="O2">
-        <v>0.02674990676839141</v>
+        <v>0.08215189730289395</v>
       </c>
       <c r="P2">
-        <v>0.02674990676839141</v>
+        <v>0.08215189730289395</v>
       </c>
       <c r="Q2">
-        <v>13.94585543073123</v>
+        <v>113.0191533187677</v>
       </c>
       <c r="R2">
-        <v>13.94585543073123</v>
+        <v>1017.172379868909</v>
       </c>
       <c r="S2">
-        <v>0.0003315149126393847</v>
+        <v>0.002377382223143068</v>
       </c>
       <c r="T2">
-        <v>0.0003315149126393847</v>
+        <v>0.002377382223143068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.09474865505498</v>
+        <v>2.714293</v>
       </c>
       <c r="H3">
-        <v>1.09474865505498</v>
+        <v>8.142879000000001</v>
       </c>
       <c r="I3">
-        <v>0.01239312404001026</v>
+        <v>0.02893885961486273</v>
       </c>
       <c r="J3">
-        <v>0.01239312404001026</v>
+        <v>0.02893885961486273</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>211.415689606829</v>
+        <v>211.5004576666667</v>
       </c>
       <c r="N3">
-        <v>211.415689606829</v>
+        <v>634.5013730000001</v>
       </c>
       <c r="O3">
-        <v>0.4439445699248751</v>
+        <v>0.4172857812357213</v>
       </c>
       <c r="P3">
-        <v>0.4439445699248751</v>
+        <v>0.4172857812357213</v>
       </c>
       <c r="Q3">
-        <v>231.4470418545972</v>
+        <v>574.0742117414297</v>
       </c>
       <c r="R3">
-        <v>231.4470418545972</v>
+        <v>5166.667905672868</v>
       </c>
       <c r="S3">
-        <v>0.005501860121967985</v>
+        <v>0.01207577464245886</v>
       </c>
       <c r="T3">
-        <v>0.005501860121967985</v>
+        <v>0.01207577464245886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.09474865505498</v>
+        <v>2.714293</v>
       </c>
       <c r="H4">
-        <v>1.09474865505498</v>
+        <v>8.142879000000001</v>
       </c>
       <c r="I4">
-        <v>0.01239312404001026</v>
+        <v>0.02893885961486273</v>
       </c>
       <c r="J4">
-        <v>0.01239312404001026</v>
+        <v>0.02893885961486273</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>102.112601185604</v>
+        <v>103.0904793333333</v>
       </c>
       <c r="N4">
-        <v>102.112601185604</v>
+        <v>309.271438</v>
       </c>
       <c r="O4">
-        <v>0.2144227559532505</v>
+        <v>0.2033952629756168</v>
       </c>
       <c r="P4">
-        <v>0.2144227559532505</v>
+        <v>0.2033952629756168</v>
       </c>
       <c r="Q4">
-        <v>111.7876328121056</v>
+        <v>279.8177664211113</v>
       </c>
       <c r="R4">
-        <v>111.7876328121056</v>
+        <v>2518.359897790002</v>
       </c>
       <c r="S4">
-        <v>0.002657367811529482</v>
+        <v>0.005886026961579462</v>
       </c>
       <c r="T4">
-        <v>0.002657367811529482</v>
+        <v>0.005886026961579462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.09474865505498</v>
+        <v>2.714293</v>
       </c>
       <c r="H5">
-        <v>1.09474865505498</v>
+        <v>8.142879000000001</v>
       </c>
       <c r="I5">
-        <v>0.01239312404001026</v>
+        <v>0.02893885961486273</v>
       </c>
       <c r="J5">
-        <v>0.01239312404001026</v>
+        <v>0.02893885961486273</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.953759805213</v>
+        <v>150.618525</v>
       </c>
       <c r="N5">
-        <v>149.953759805213</v>
+        <v>451.855575</v>
       </c>
       <c r="O5">
-        <v>0.314882767353483</v>
+        <v>0.297167058485768</v>
       </c>
       <c r="P5">
-        <v>0.314882767353483</v>
+        <v>0.2971670584857679</v>
       </c>
       <c r="Q5">
-        <v>164.1616768671945</v>
+        <v>408.822808077825</v>
       </c>
       <c r="R5">
-        <v>164.1616768671945</v>
+        <v>3679.405272700425</v>
       </c>
       <c r="S5">
-        <v>0.003902381193873407</v>
+        <v>0.008599675787681341</v>
       </c>
       <c r="T5">
-        <v>0.003902381193873407</v>
+        <v>0.00859967578768134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.0119584358747</v>
+        <v>64.641609</v>
       </c>
       <c r="H6">
-        <v>64.0119584358747</v>
+        <v>193.924827</v>
       </c>
       <c r="I6">
-        <v>0.7246486554486199</v>
+        <v>0.6891866309679342</v>
       </c>
       <c r="J6">
-        <v>0.7246486554486199</v>
+        <v>0.6891866309679342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.738865095962</v>
+        <v>41.63852366666666</v>
       </c>
       <c r="N6">
-        <v>12.738865095962</v>
+        <v>124.915571</v>
       </c>
       <c r="O6">
-        <v>0.02674990676839141</v>
+        <v>0.08215189730289395</v>
       </c>
       <c r="P6">
-        <v>0.02674990676839141</v>
+        <v>0.08215189730289395</v>
       </c>
       <c r="Q6">
-        <v>815.4397030429345</v>
+        <v>2691.581166197913</v>
       </c>
       <c r="R6">
-        <v>815.4397030429345</v>
+        <v>24224.23049578122</v>
       </c>
       <c r="S6">
-        <v>0.01938428397309077</v>
+        <v>0.0566179893298052</v>
       </c>
       <c r="T6">
-        <v>0.01938428397309077</v>
+        <v>0.0566179893298052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.0119584358747</v>
+        <v>64.641609</v>
       </c>
       <c r="H7">
-        <v>64.0119584358747</v>
+        <v>193.924827</v>
       </c>
       <c r="I7">
-        <v>0.7246486554486199</v>
+        <v>0.6891866309679342</v>
       </c>
       <c r="J7">
-        <v>0.7246486554486199</v>
+        <v>0.6891866309679342</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>211.415689606829</v>
+        <v>211.5004576666667</v>
       </c>
       <c r="N7">
-        <v>211.415689606829</v>
+        <v>634.5013730000001</v>
       </c>
       <c r="O7">
-        <v>0.4439445699248751</v>
+        <v>0.4172857812357213</v>
       </c>
       <c r="P7">
-        <v>0.4439445699248751</v>
+        <v>0.4172857812357213</v>
       </c>
       <c r="Q7">
-        <v>13533.13233580413</v>
+        <v>13671.72988780972</v>
       </c>
       <c r="R7">
-        <v>13533.13233580413</v>
+        <v>123045.5689902875</v>
       </c>
       <c r="S7">
-        <v>0.3217038356897766</v>
+        <v>0.2875877817206692</v>
       </c>
       <c r="T7">
-        <v>0.3217038356897766</v>
+        <v>0.2875877817206692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.0119584358747</v>
+        <v>64.641609</v>
       </c>
       <c r="H8">
-        <v>64.0119584358747</v>
+        <v>193.924827</v>
       </c>
       <c r="I8">
-        <v>0.7246486554486199</v>
+        <v>0.6891866309679342</v>
       </c>
       <c r="J8">
-        <v>0.7246486554486199</v>
+        <v>0.6891866309679342</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>102.112601185604</v>
+        <v>103.0904793333333</v>
       </c>
       <c r="N8">
-        <v>102.112601185604</v>
+        <v>309.271438</v>
       </c>
       <c r="O8">
-        <v>0.2144227559532505</v>
+        <v>0.2033952629756168</v>
       </c>
       <c r="P8">
-        <v>0.2144227559532505</v>
+        <v>0.2033952629756168</v>
       </c>
       <c r="Q8">
-        <v>6536.427582871934</v>
+        <v>6663.934456687914</v>
       </c>
       <c r="R8">
-        <v>6536.427582871934</v>
+        <v>59975.41011019122</v>
       </c>
       <c r="S8">
-        <v>0.1553811617991105</v>
+        <v>0.1401772960450024</v>
       </c>
       <c r="T8">
-        <v>0.1553811617991105</v>
+        <v>0.1401772960450023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.0119584358747</v>
+        <v>64.641609</v>
       </c>
       <c r="H9">
-        <v>64.0119584358747</v>
+        <v>193.924827</v>
       </c>
       <c r="I9">
-        <v>0.7246486554486199</v>
+        <v>0.6891866309679342</v>
       </c>
       <c r="J9">
-        <v>0.7246486554486199</v>
+        <v>0.6891866309679342</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>149.953759805213</v>
+        <v>150.618525</v>
       </c>
       <c r="N9">
-        <v>149.953759805213</v>
+        <v>451.855575</v>
       </c>
       <c r="O9">
-        <v>0.314882767353483</v>
+        <v>0.297167058485768</v>
       </c>
       <c r="P9">
-        <v>0.314882767353483</v>
+        <v>0.2971670584857679</v>
       </c>
       <c r="Q9">
-        <v>9598.833839954434</v>
+        <v>9736.223801206726</v>
       </c>
       <c r="R9">
-        <v>9598.833839954434</v>
+        <v>87626.01421086052</v>
       </c>
       <c r="S9">
-        <v>0.228179373986642</v>
+        <v>0.2048035638724575</v>
       </c>
       <c r="T9">
-        <v>0.228179373986642</v>
+        <v>0.2048035638724575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.28768444327876</v>
+        <v>2.357276</v>
       </c>
       <c r="H10">
-        <v>1.28768444327876</v>
+        <v>7.071828</v>
       </c>
       <c r="I10">
-        <v>0.01457725748851801</v>
+        <v>0.02513246699508312</v>
       </c>
       <c r="J10">
-        <v>0.01457725748851801</v>
+        <v>0.02513246699508312</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.738865095962</v>
+        <v>41.63852366666666</v>
       </c>
       <c r="N10">
-        <v>12.738865095962</v>
+        <v>124.915571</v>
       </c>
       <c r="O10">
-        <v>0.02674990676839141</v>
+        <v>0.08215189730289395</v>
       </c>
       <c r="P10">
-        <v>0.02674990676839141</v>
+        <v>0.08215189730289395</v>
       </c>
       <c r="Q10">
-        <v>16.40363840909706</v>
+        <v>98.15349251486533</v>
       </c>
       <c r="R10">
-        <v>16.40363840909706</v>
+        <v>883.381432633788</v>
       </c>
       <c r="S10">
-        <v>0.0003899402787566923</v>
+        <v>0.002064679847548441</v>
       </c>
       <c r="T10">
-        <v>0.0003899402787566923</v>
+        <v>0.002064679847548441</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.28768444327876</v>
+        <v>2.357276</v>
       </c>
       <c r="H11">
-        <v>1.28768444327876</v>
+        <v>7.071828</v>
       </c>
       <c r="I11">
-        <v>0.01457725748851801</v>
+        <v>0.02513246699508312</v>
       </c>
       <c r="J11">
-        <v>0.01457725748851801</v>
+        <v>0.02513246699508312</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>211.415689606829</v>
+        <v>211.5004576666667</v>
       </c>
       <c r="N11">
-        <v>211.415689606829</v>
+        <v>634.5013730000001</v>
       </c>
       <c r="O11">
-        <v>0.4439445699248751</v>
+        <v>0.4172857812357213</v>
       </c>
       <c r="P11">
-        <v>0.4439445699248751</v>
+        <v>0.4172857812357213</v>
       </c>
       <c r="Q11">
-        <v>272.2366945717647</v>
+        <v>498.5649528466494</v>
       </c>
       <c r="R11">
-        <v>272.2366945717647</v>
+        <v>4487.084575619844</v>
       </c>
       <c r="S11">
-        <v>0.006471494306424293</v>
+        <v>0.01048742112442424</v>
       </c>
       <c r="T11">
-        <v>0.006471494306424293</v>
+        <v>0.01048742112442424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.28768444327876</v>
+        <v>2.357276</v>
       </c>
       <c r="H12">
-        <v>1.28768444327876</v>
+        <v>7.071828</v>
       </c>
       <c r="I12">
-        <v>0.01457725748851801</v>
+        <v>0.02513246699508312</v>
       </c>
       <c r="J12">
-        <v>0.01457725748851801</v>
+        <v>0.02513246699508312</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>102.112601185604</v>
+        <v>103.0904793333333</v>
       </c>
       <c r="N12">
-        <v>102.112601185604</v>
+        <v>309.271438</v>
       </c>
       <c r="O12">
-        <v>0.2144227559532505</v>
+        <v>0.2033952629756168</v>
       </c>
       <c r="P12">
-        <v>0.2144227559532505</v>
+        <v>0.2033952629756168</v>
       </c>
       <c r="Q12">
-        <v>131.4888080094305</v>
+        <v>243.0127127609627</v>
       </c>
       <c r="R12">
-        <v>131.4888080094305</v>
+        <v>2187.114414848664</v>
       </c>
       <c r="S12">
-        <v>0.003125695724928191</v>
+        <v>0.005111824733690942</v>
       </c>
       <c r="T12">
-        <v>0.003125695724928191</v>
+        <v>0.005111824733690941</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.28768444327876</v>
+        <v>2.357276</v>
       </c>
       <c r="H13">
-        <v>1.28768444327876</v>
+        <v>7.071828</v>
       </c>
       <c r="I13">
-        <v>0.01457725748851801</v>
+        <v>0.02513246699508312</v>
       </c>
       <c r="J13">
-        <v>0.01457725748851801</v>
+        <v>0.02513246699508312</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>149.953759805213</v>
+        <v>150.618525</v>
       </c>
       <c r="N13">
-        <v>149.953759805213</v>
+        <v>451.855575</v>
       </c>
       <c r="O13">
-        <v>0.314882767353483</v>
+        <v>0.297167058485768</v>
       </c>
       <c r="P13">
-        <v>0.314882767353483</v>
+        <v>0.2971670584857679</v>
       </c>
       <c r="Q13">
-        <v>193.0931237123326</v>
+        <v>355.0494341379001</v>
       </c>
       <c r="R13">
-        <v>193.0931237123326</v>
+        <v>3195.4449072411</v>
       </c>
       <c r="S13">
-        <v>0.004590127178408834</v>
+        <v>0.007468541289419499</v>
       </c>
       <c r="T13">
-        <v>0.004590127178408834</v>
+        <v>0.007468541289419498</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.9407733137078</v>
+        <v>24.08087733333333</v>
       </c>
       <c r="H14">
-        <v>21.9407733137078</v>
+        <v>72.242632</v>
       </c>
       <c r="I14">
-        <v>0.2483809630228518</v>
+        <v>0.25674204242212</v>
       </c>
       <c r="J14">
-        <v>0.2483809630228518</v>
+        <v>0.25674204242212</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.738865095962</v>
+        <v>41.63852366666666</v>
       </c>
       <c r="N14">
-        <v>12.738865095962</v>
+        <v>124.915571</v>
       </c>
       <c r="O14">
-        <v>0.02674990676839141</v>
+        <v>0.08215189730289395</v>
       </c>
       <c r="P14">
-        <v>0.02674990676839141</v>
+        <v>0.08215189730289395</v>
       </c>
       <c r="Q14">
-        <v>279.5005513444068</v>
+        <v>1002.692180758097</v>
       </c>
       <c r="R14">
-        <v>279.5005513444068</v>
+        <v>9024.229626822873</v>
       </c>
       <c r="S14">
-        <v>0.006644167603904559</v>
+        <v>0.02109184590239724</v>
       </c>
       <c r="T14">
-        <v>0.006644167603904559</v>
+        <v>0.02109184590239724</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.9407733137078</v>
+        <v>24.08087733333333</v>
       </c>
       <c r="H15">
-        <v>21.9407733137078</v>
+        <v>72.242632</v>
       </c>
       <c r="I15">
-        <v>0.2483809630228518</v>
+        <v>0.25674204242212</v>
       </c>
       <c r="J15">
-        <v>0.2483809630228518</v>
+        <v>0.25674204242212</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>211.415689606829</v>
+        <v>211.5004576666667</v>
       </c>
       <c r="N15">
-        <v>211.415689606829</v>
+        <v>634.5013730000001</v>
       </c>
       <c r="O15">
-        <v>0.4439445699248751</v>
+        <v>0.4172857812357213</v>
       </c>
       <c r="P15">
-        <v>0.4439445699248751</v>
+        <v>0.4172857812357213</v>
       </c>
       <c r="Q15">
-        <v>4638.623720624646</v>
+        <v>5093.11657701486</v>
       </c>
       <c r="R15">
-        <v>4638.623720624646</v>
+        <v>45838.04919313374</v>
       </c>
       <c r="S15">
-        <v>0.1102673798067063</v>
+        <v>0.107134803748169</v>
       </c>
       <c r="T15">
-        <v>0.1102673798067063</v>
+        <v>0.107134803748169</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.9407733137078</v>
+        <v>24.08087733333333</v>
       </c>
       <c r="H16">
-        <v>21.9407733137078</v>
+        <v>72.242632</v>
       </c>
       <c r="I16">
-        <v>0.2483809630228518</v>
+        <v>0.25674204242212</v>
       </c>
       <c r="J16">
-        <v>0.2483809630228518</v>
+        <v>0.25674204242212</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>102.112601185604</v>
+        <v>103.0904793333333</v>
       </c>
       <c r="N16">
-        <v>102.112601185604</v>
+        <v>309.271438</v>
       </c>
       <c r="O16">
-        <v>0.2144227559532505</v>
+        <v>0.2033952629756168</v>
       </c>
       <c r="P16">
-        <v>0.2144227559532505</v>
+        <v>0.2033952629756168</v>
       </c>
       <c r="Q16">
-        <v>2240.429435086388</v>
+        <v>2482.509187060535</v>
       </c>
       <c r="R16">
-        <v>2240.429435086388</v>
+        <v>22342.58268354482</v>
       </c>
       <c r="S16">
-        <v>0.05325853061768229</v>
+        <v>0.05222011523534406</v>
       </c>
       <c r="T16">
-        <v>0.05325853061768229</v>
+        <v>0.05222011523534405</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.9407733137078</v>
+        <v>24.08087733333333</v>
       </c>
       <c r="H17">
-        <v>21.9407733137078</v>
+        <v>72.242632</v>
       </c>
       <c r="I17">
-        <v>0.2483809630228518</v>
+        <v>0.25674204242212</v>
       </c>
       <c r="J17">
-        <v>0.2483809630228518</v>
+        <v>0.25674204242212</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>149.953759805213</v>
+        <v>150.618525</v>
       </c>
       <c r="N17">
-        <v>149.953759805213</v>
+        <v>451.855575</v>
       </c>
       <c r="O17">
-        <v>0.314882767353483</v>
+        <v>0.297167058485768</v>
       </c>
       <c r="P17">
-        <v>0.314882767353483</v>
+        <v>0.2971670584857679</v>
       </c>
       <c r="Q17">
-        <v>3290.101451424367</v>
+        <v>3627.0262246526</v>
       </c>
       <c r="R17">
-        <v>3290.101451424367</v>
+        <v>32643.2360218734</v>
       </c>
       <c r="S17">
-        <v>0.07821088499455869</v>
+        <v>0.07629527753620964</v>
       </c>
       <c r="T17">
-        <v>0.07821088499455869</v>
+        <v>0.07629527753620963</v>
       </c>
     </row>
   </sheetData>
